--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -10041,8 +10041,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5d4a3c7149b57b28db1d4e0c8b1f8ef">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94b4aa4579c01afc24555846f42c1406" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
     <xsd:import namespace="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
     <xsd:element name="properties">
@@ -10303,7 +10303,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B2300D-7072-4246-BD53-F1B74CD9292F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4AD110E-BCBD-4E5F-9394-B258AB9B8FA3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
